--- a/data/trans_dic/IP11D_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP11D_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,13%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,43</t>
+          <t>0,39; 3,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,82</t>
+          <t>0,32; 2,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,17</t>
+          <t>0,46; 2,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,27</t>
+          <t>0,64; 3,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,95</t>
+          <t>0,21; 1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,33</t>
+          <t>0,56; 2,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP11D_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP11D_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,36%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 1,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,22</t>
+          <t>0,0; 3,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>1,22%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,27</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,95</t>
+          <t>0,37; 3,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,33</t>
+          <t>0,32; 1,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,43</t>
+          <t>0,35; 3,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,82</t>
+          <t>0,41; 4,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,17</t>
+          <t>0,6; 2,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,31</t>
+          <t>0,64; 4,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,66</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,75</t>
+          <t>0,45; 2,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 2,48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 1,66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 1,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP11D_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP11D_2023-Edad-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,58</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,43</t>
+          <t>0,37; 3,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,96</t>
+          <t>0,3; 1,95</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,61</t>
+          <t>0,36; 3,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,07</t>
+          <t>0,41; 3,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,96</t>
+          <t>0,57; 2,68</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,19</t>
+          <t>0,59; 4,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,44</t>
+          <t>0,42; 2,61</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,48</t>
+          <t>0,65; 2,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,66</t>
+          <t>0,38; 1,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,7</t>
+          <t>0,65; 1,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP11D_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP11D_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,06</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,64</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,65</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,48%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,37; 3,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,18</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,95</t>
+          <t>0,27; 1,9</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,46%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,7</t>
+          <t>0,41; 3,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,94</t>
+          <t>0,35; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,68</t>
+          <t>0,61; 2,92</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,16</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,56; 4,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,61</t>
+          <t>0,45; 2,53</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,43</t>
+          <t>0,37; 1,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,68</t>
+          <t>0,64; 2,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,71</t>
+          <t>0,67; 1,76</t>
         </is>
       </c>
     </row>
